--- a/u2.xlsx
+++ b/u2.xlsx
@@ -4,20 +4,20 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="1" windowWidth="12800" windowHeight="5530"/>
+    <workbookView activeTab="1" windowWidth="12800" windowHeight="5560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="assignment2" sheetId="2" r:id="rId2"/>
-    <sheet name="assignment_3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"assignment2"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet2"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"assignment_3"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet3"</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="31">
   <si>
     <t>Assignment 2</t>
   </si>
@@ -78,7 +78,7 @@
     <t>Sequential runtimes</t>
   </si>
   <si>
-    <t>n (32-bit floating point)</t>
+    <t>n (64-bit floating point)</t>
   </si>
   <si>
     <t>2²⁰</t>
@@ -90,7 +90,7 @@
     <t>#p</t>
   </si>
   <si>
-    <t>speedup (s)</t>
+    <t>speedup </t>
   </si>
   <si>
     <t>2²¹</t>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>2²⁶</t>
+  </si>
+  <si>
+    <t>speedup</t>
   </si>
   <si>
     <t>2²⁷</t>
@@ -184,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border diagonalUp="0" diagonalDown="0">
       <start style="none">
         <color rgb="FFC7C7C7"/>
@@ -311,111 +314,13 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF000000"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF000000"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="30">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -506,39 +411,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="9" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="4" borderId="11" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="13" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="15" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -567,8 +439,8 @@
     <col min="18" max="18" style="1" width="10.2851" bestFit="1" customWidth="1"/>
     <col min="19" max="19" style="1" width="9.142308"/>
     <col min="20" max="20" style="1" width="10.2851" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" style="1" width="9.142308"/>
-    <col min="24" max="256" style="1"/>
+    <col min="21" max="21" style="1" width="9.142308"/>
+    <col min="22" max="256" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="14.25">
@@ -624,7 +496,7 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -805,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9">
-        <v>0.013200999999999999</v>
+        <v>0.016400999999999999</v>
       </c>
       <c r="D12" s="9">
         <v>0.065609000000000001</v>
@@ -820,7 +692,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9">
-        <v>0.018324</v>
+        <v>0.018644000000000001</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
@@ -916,7 +788,7 @@
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9">
-        <v>0.082321000000000005</v>
+        <v>0.082641000000000006</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9">
@@ -1015,7 +887,7 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5">
@@ -1230,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="9">
-        <v>0.021321</v>
+        <v>0.021641000000000001</v>
       </c>
       <c r="D24" s="9">
         <v>0.086474999999999996</v>
@@ -1369,7 +1241,7 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9">
-        <v>0.32539099999999999</v>
+        <v>0.64539100000000005</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9">
@@ -1425,7 +1297,7 @@
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
-        <v>0.16323399999999999</v>
+        <v>0.166434</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9">
@@ -1437,7 +1309,7 @@
       </c>
       <c r="Q28" s="9"/>
       <c r="R28" s="9">
-        <v>0.32772000000000001</v>
+        <v>0.64771999999999996</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="9">
@@ -1450,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="9">
-        <v>0.67332899999999996</v>
+        <v>0.67364900000000005</v>
       </c>
       <c r="D29" s="9">
         <v>2.5462259999999999</v>
@@ -1920,26 +1792,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:R78"/>
+  <dimension ref="B2:R78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="90" tabSelected="1">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.142308"/>
+    <col min="1" max="1" style="1"/>
     <col min="2" max="2" style="1" width="25.71274" customWidth="1"/>
     <col min="3" max="8" style="1" width="10.2851" bestFit="1" customWidth="1"/>
     <col min="9" max="9" style="1" width="11.71358" customWidth="1"/>
     <col min="10" max="10" style="1" width="10.2851" bestFit="1" customWidth="1"/>
     <col min="11" max="11" style="1" width="14.7134" customWidth="1"/>
     <col min="12" max="18" style="1" width="10.2851" bestFit="1" customWidth="1"/>
-    <col min="19" max="248" style="1"/>
-    <col min="249" max="256" style="0"/>
+    <col min="19" max="256" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="2:18">
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1949,11 +1820,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-    </row>
-    <row r="4" spans="1:18" ht="14.25">
+    <row r="4" spans="2:18" ht="14.25">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1829,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25">
+    <row r="5" spans="2:18" ht="14.25">
       <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
@@ -1980,11 +1847,9 @@
       <c r="K5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="0"/>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="14.25">
-      <c r="A6"/>
+    <row r="6" spans="2:18" ht="14.25">
       <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
@@ -2004,7 +1869,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>6</v>
@@ -2014,7 +1879,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25">
+    <row r="7" spans="2:18" ht="14.25">
       <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
@@ -2044,7 +1909,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="14.25">
+    <row r="8" spans="2:18" ht="14.25">
       <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +1945,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="14.25">
+    <row r="9" spans="2:18" ht="14.25">
       <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
@@ -2100,7 +1965,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25">
+    <row r="10" spans="2:18" ht="14.25">
       <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
@@ -2120,17 +1985,17 @@
         <v>16</v>
       </c>
       <c r="H10" s="22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="9">
-        <v>0.013200999999999999</v>
+        <v>0.016400999999999999</v>
       </c>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25">
+    <row r="11" spans="2:18" ht="14.25">
       <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
@@ -2160,7 +2025,7 @@
       </c>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25">
+    <row r="12" spans="2:18" ht="14.25">
       <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
@@ -2196,7 +2061,7 @@
       </c>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:18" ht="14.25">
+    <row r="13" spans="2:18" ht="14.25">
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2080,7 @@
         <v>0.081573000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25">
+    <row r="14" spans="2:18" ht="14.25">
       <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
@@ -2235,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>14</v>
@@ -2244,7 +2109,7 @@
         <v>0.16236700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25">
+    <row r="15" spans="2:18" ht="14.25">
       <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
@@ -2266,10 +2131,8 @@
       <c r="H15" s="23">
         <v>0.198293</v>
       </c>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-    </row>
-    <row r="16" spans="1:18" ht="14.25">
+    </row>
+    <row r="16" spans="2:18" ht="14.25">
       <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
@@ -2297,10 +2160,8 @@
         <f>$K$6/H15</f>
         <v>0.003832712198615181</v>
       </c>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-    </row>
-    <row r="17" spans="1:18" ht="14.25">
+    </row>
+    <row r="17" spans="2:18" ht="14.25">
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2174,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25">
+    <row r="18" spans="2:18" ht="14.25">
       <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
@@ -2333,10 +2194,10 @@
         <v>16</v>
       </c>
       <c r="H18" s="22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="14.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="14.25">
       <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2220,7 @@
         <v>0.19730300000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.25">
+    <row r="20" spans="2:18" ht="14.25">
       <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
@@ -2388,7 +2249,7 @@
         <v>0.04177838147417931</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.25">
+    <row r="21" spans="2:18" ht="14.25">
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
@@ -2401,7 +2262,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25">
+    <row r="22" spans="2:18" ht="14.25">
       <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
@@ -2421,10 +2282,10 @@
         <v>16</v>
       </c>
       <c r="H22" s="22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="14.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="14.25">
       <c r="B23" s="21" t="s">
         <v>19</v>
       </c>
@@ -2438,7 +2299,7 @@
         <v>0.023063</v>
       </c>
       <c r="F23" s="9">
-        <v>0.018324</v>
+        <v>0.018644000000000001</v>
       </c>
       <c r="G23" s="9">
         <v>0.013746</v>
@@ -2447,36 +2308,36 @@
         <v>0.12601100000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.25">
+    <row r="24" spans="2:18" ht="14.25">
       <c r="B24" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="9">
         <f>$K$10/C23</f>
-        <v>0.20120715145787924</v>
+        <v>0.24998094773582891</v>
       </c>
       <c r="D24" s="9">
         <f>$K$10/D23</f>
-        <v>0.39138426873017279</v>
+        <v>0.48625811616116688</v>
       </c>
       <c r="E24" s="9">
         <f>$K$10/E23</f>
-        <v>0.57238867450028175</v>
+        <v>0.71113905389585041</v>
       </c>
       <c r="F24" s="9">
         <f>$K$10/F23</f>
-        <v>0.7204213053918358</v>
+        <v>0.87969319888435948</v>
       </c>
       <c r="G24" s="9">
         <f>$K$10/G23</f>
-        <v>0.96035210242979774</v>
+        <v>1.1931470973374072</v>
       </c>
       <c r="H24" s="9">
         <f>$K$10/H23</f>
-        <v>0.10476069549483774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="14.25">
+        <v>0.13015530390204028</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="14.25">
       <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2350,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25">
+    <row r="26" spans="2:18" ht="14.25">
       <c r="B26" s="21" t="s">
         <v>20</v>
       </c>
@@ -2509,10 +2370,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="14.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="14.25">
       <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2396,7 @@
         <v>0.026630999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.25">
+    <row r="28" spans="2:18" ht="14.25">
       <c r="B28" s="21" t="s">
         <v>21</v>
       </c>
@@ -2564,7 +2425,7 @@
         <v>0.7927978671473096</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14.25">
+    <row r="29" spans="2:18" ht="14.25">
       <c r="B29" s="16" t="s">
         <v>17</v>
       </c>
@@ -2577,7 +2438,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25">
+    <row r="30" spans="2:18" ht="14.25">
       <c r="B30" s="21" t="s">
         <v>20</v>
       </c>
@@ -2597,10 +2458,10 @@
         <v>16</v>
       </c>
       <c r="H30" s="22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="14.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="14.25">
       <c r="B31" s="21" t="s">
         <v>19</v>
       </c>
@@ -2623,9 +2484,9 @@
         <v>0.231795</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.25">
+    <row r="32" spans="2:18" ht="14.25">
       <c r="B32" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C32" s="9">
         <f>$K$12/C31</f>
@@ -2661,12 +2522,12 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="1:18" ht="14.25">
+    <row r="33" spans="2:18" ht="14.25">
       <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -2683,7 +2544,7 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
     </row>
-    <row r="34" spans="1:18" ht="14.25">
+    <row r="34" spans="2:18" ht="14.25">
       <c r="B34" s="21" t="s">
         <v>20</v>
       </c>
@@ -2703,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -2715,7 +2576,7 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
     </row>
-    <row r="35" spans="1:18" ht="14.25">
+    <row r="35" spans="2:18" ht="14.25">
       <c r="B35" s="21" t="s">
         <v>19</v>
       </c>
@@ -2729,7 +2590,7 @@
         <v>0.138125</v>
       </c>
       <c r="F35" s="9">
-        <v>0.082321000000000005</v>
+        <v>0.082641000000000006</v>
       </c>
       <c r="G35" s="9">
         <v>0.20815400000000001</v>
@@ -2747,9 +2608,9 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
     </row>
-    <row r="36" spans="1:18" ht="14.25">
+    <row r="36" spans="2:18" ht="14.25">
       <c r="B36" s="21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C36" s="9">
         <f>$K$13/C35</f>
@@ -2765,7 +2626,7 @@
       </c>
       <c r="F36" s="9">
         <f>$K$13/F35</f>
-        <v>0.99091361863922933</v>
+        <v>0.987076632664174</v>
       </c>
       <c r="G36" s="9">
         <f>$K$13/G35</f>
@@ -2785,12 +2646,12 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
     </row>
-    <row r="37" spans="1:18" ht="14.25">
+    <row r="37" spans="2:18" ht="14.25">
       <c r="B37" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -2807,7 +2668,7 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:18" ht="14.25">
+    <row r="38" spans="2:18" ht="14.25">
       <c r="B38" s="21" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="H38" s="22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2839,7 +2700,7 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="1:18" ht="14.25">
+    <row r="39" spans="2:18" ht="14.25">
       <c r="B39" s="21" t="s">
         <v>19</v>
       </c>
@@ -2871,7 +2732,7 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
     </row>
-    <row r="40" spans="1:18" ht="14.25">
+    <row r="40" spans="2:18" ht="14.25">
       <c r="B40" s="24" t="s">
         <v>21</v>
       </c>
@@ -2909,12 +2770,13 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="14.25">
+    <row r="41" spans="2:18" ht="14.25"/>
+    <row r="42" spans="2:18" ht="14.25">
       <c r="B42" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14.25">
+    <row r="43" spans="2:18" ht="14.25">
       <c r="B43" s="16" t="s">
         <v>17</v>
       </c>
@@ -2930,7 +2792,7 @@
       <c r="J43" s="26"/>
       <c r="K43" s="27"/>
     </row>
-    <row r="44" spans="1:18" ht="14.25">
+    <row r="44" spans="2:18" ht="14.25">
       <c r="B44" s="21" t="s">
         <v>20</v>
       </c>
@@ -2953,7 +2815,7 @@
         <v>24</v>
       </c>
       <c r="I44">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J44">
         <v>48</v>
@@ -2962,7 +2824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.25">
+    <row r="45" spans="2:18" ht="14.25">
       <c r="B45" s="21" t="s">
         <v>19</v>
       </c>
@@ -2994,9 +2856,9 @@
         <v>0.098641999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.25">
+    <row r="46" spans="2:18" ht="14.25">
       <c r="B46" s="24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -3008,7 +2870,7 @@
       <c r="J46" s="28"/>
       <c r="K46" s="29"/>
     </row>
-    <row r="47" spans="1:18" ht="14.25">
+    <row r="47" spans="2:18" ht="14.25">
       <c r="B47" s="16" t="s">
         <v>17</v>
       </c>
@@ -3024,7 +2886,7 @@
       <c r="J47" s="26"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" spans="1:18" ht="14.25">
+    <row r="48" spans="2:18" ht="14.25">
       <c r="B48" s="21" t="s">
         <v>20</v>
       </c>
@@ -3047,7 +2909,7 @@
         <v>24</v>
       </c>
       <c r="I48">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J48">
         <v>48</v>
@@ -3056,7 +2918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.25">
+    <row r="49" spans="2:18" ht="14.25">
       <c r="B49" s="21" t="s">
         <v>19</v>
       </c>
@@ -3088,9 +2950,9 @@
         <v>0.078700000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14.25">
+    <row r="50" spans="2:18" ht="14.25">
       <c r="B50" s="24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -3102,7 +2964,7 @@
       <c r="J50" s="28"/>
       <c r="K50" s="29"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25">
+    <row r="51" spans="2:18" ht="14.25">
       <c r="B51" s="16" t="s">
         <v>17</v>
       </c>
@@ -3118,7 +2980,7 @@
       <c r="J51" s="26"/>
       <c r="K51" s="27"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25">
+    <row r="52" spans="2:18" ht="14.25">
       <c r="B52" s="21" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3003,7 @@
         <v>24</v>
       </c>
       <c r="I52">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J52">
         <v>48</v>
@@ -3150,7 +3012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14.25">
+    <row r="53" spans="2:18" ht="14.25">
       <c r="B53" s="21" t="s">
         <v>19</v>
       </c>
@@ -3182,7 +3044,7 @@
         <v>0.063947000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14.25">
+    <row r="54" spans="2:18" ht="14.25">
       <c r="B54" s="24" t="s">
         <v>21</v>
       </c>
@@ -3196,7 +3058,7 @@
       <c r="J54" s="28"/>
       <c r="K54" s="29"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25">
+    <row r="55" spans="2:18" ht="14.25">
       <c r="B55" s="16" t="s">
         <v>17</v>
       </c>
@@ -3212,7 +3074,7 @@
       <c r="J55" s="26"/>
       <c r="K55" s="27"/>
     </row>
-    <row r="56" spans="1:18" ht="14.25">
+    <row r="56" spans="2:18" ht="14.25">
       <c r="B56" s="21" t="s">
         <v>20</v>
       </c>
@@ -3235,7 +3097,7 @@
         <v>24</v>
       </c>
       <c r="I56">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J56">
         <v>48</v>
@@ -3244,7 +3106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.25">
+    <row r="57" spans="2:18" ht="14.25">
       <c r="B57" s="21" t="s">
         <v>19</v>
       </c>
@@ -3276,7 +3138,7 @@
         <v>0.089913000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.25">
+    <row r="58" spans="2:18" ht="14.25">
       <c r="B58" s="24" t="s">
         <v>21</v>
       </c>
@@ -3290,7 +3152,7 @@
       <c r="J58" s="28"/>
       <c r="K58" s="29"/>
     </row>
-    <row r="59" spans="1:18" ht="14.25">
+    <row r="59" spans="2:18" ht="14.25">
       <c r="B59" s="16" t="s">
         <v>17</v>
       </c>
@@ -3306,7 +3168,7 @@
       <c r="J59" s="26"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25">
+    <row r="60" spans="2:18" ht="14.25">
       <c r="B60" s="21" t="s">
         <v>20</v>
       </c>
@@ -3329,7 +3191,7 @@
         <v>24</v>
       </c>
       <c r="I60">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J60">
         <v>48</v>
@@ -3338,7 +3200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="14.25">
+    <row r="61" spans="2:18" ht="14.25">
       <c r="B61" s="21" t="s">
         <v>19</v>
       </c>
@@ -3370,9 +3232,9 @@
         <v>0.14979400000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="14.25">
+    <row r="62" spans="2:18" ht="14.25">
       <c r="B62" s="24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
@@ -3384,7 +3246,7 @@
       <c r="J62" s="28"/>
       <c r="K62" s="29"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25">
+    <row r="63" spans="2:18" ht="14.25">
       <c r="B63" s="16" t="s">
         <v>17</v>
       </c>
@@ -3400,7 +3262,7 @@
       <c r="J63" s="26"/>
       <c r="K63" s="27"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25">
+    <row r="64" spans="2:18" ht="14.25">
       <c r="B64" s="21" t="s">
         <v>20</v>
       </c>
@@ -3423,7 +3285,7 @@
         <v>24</v>
       </c>
       <c r="I64">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J64">
         <v>48</v>
@@ -3432,7 +3294,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="14.25">
+    <row r="65" spans="2:18" ht="14.25">
       <c r="B65" s="21" t="s">
         <v>19</v>
       </c>
@@ -3464,7 +3326,7 @@
         <v>0.122487</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="14.25">
+    <row r="66" spans="2:18" ht="14.25">
       <c r="B66" s="24" t="s">
         <v>21</v>
       </c>
@@ -3478,7 +3340,7 @@
       <c r="J66" s="28"/>
       <c r="K66" s="29"/>
     </row>
-    <row r="67" spans="1:18" ht="14.25">
+    <row r="67" spans="2:18" ht="14.25">
       <c r="B67" s="16" t="s">
         <v>17</v>
       </c>
@@ -3494,7 +3356,7 @@
       <c r="J67" s="26"/>
       <c r="K67" s="27"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25">
+    <row r="68" spans="2:18" ht="14.25">
       <c r="B68" s="21" t="s">
         <v>20</v>
       </c>
@@ -3517,7 +3379,7 @@
         <v>24</v>
       </c>
       <c r="I68">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J68">
         <v>48</v>
@@ -3526,7 +3388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="14.25">
+    <row r="69" spans="2:18" ht="14.25">
       <c r="B69" s="21" t="s">
         <v>19</v>
       </c>
@@ -3534,7 +3396,7 @@
         <v>0.65561899999999995</v>
       </c>
       <c r="D69" s="9">
-        <v>0.32539099999999999</v>
+        <v>0.64539100000000005</v>
       </c>
       <c r="E69" s="9">
         <v>0.17752299999999999</v>
@@ -3558,7 +3420,7 @@
         <v>0.16930899999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="14.25">
+    <row r="70" spans="2:18" ht="14.25">
       <c r="B70" s="24" t="s">
         <v>21</v>
       </c>
@@ -3572,12 +3434,12 @@
       <c r="J70" s="28"/>
       <c r="K70" s="29"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25">
+    <row r="71" spans="2:18" ht="14.25">
       <c r="B71" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -3588,7 +3450,7 @@
       <c r="J71" s="26"/>
       <c r="K71" s="27"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25">
+    <row r="72" spans="2:18" ht="14.25">
       <c r="B72" s="21" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3473,7 @@
         <v>24</v>
       </c>
       <c r="I72">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J72">
         <v>48</v>
@@ -3620,7 +3482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="14.25">
+    <row r="73" spans="2:18" ht="14.25">
       <c r="B73" s="21" t="s">
         <v>19</v>
       </c>
@@ -3637,7 +3499,7 @@
         <v>0.20311499999999999</v>
       </c>
       <c r="G73" s="9">
-        <v>0.16323399999999999</v>
+        <v>0.166434</v>
       </c>
       <c r="H73" s="9">
         <v>0.17150000000000001</v>
@@ -3646,15 +3508,15 @@
         <v>0.20277200000000001</v>
       </c>
       <c r="J73" s="9">
-        <v>0.32772000000000001</v>
+        <v>0.64771999999999996</v>
       </c>
       <c r="K73" s="23">
         <v>0.24318899999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="14.25">
+    <row r="74" spans="2:18" ht="14.25">
       <c r="B74" s="24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -3666,12 +3528,12 @@
       <c r="J74" s="28"/>
       <c r="K74" s="29"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25">
+    <row r="75" spans="2:18" ht="14.25">
       <c r="B75" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -3682,7 +3544,7 @@
       <c r="J75" s="26"/>
       <c r="K75" s="27"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25">
+    <row r="76" spans="2:18" ht="14.25">
       <c r="B76" s="21" t="s">
         <v>20</v>
       </c>
@@ -3705,7 +3567,7 @@
         <v>24</v>
       </c>
       <c r="I76">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J76">
         <v>48</v>
@@ -3714,7 +3576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="14.25">
+    <row r="77" spans="2:18" ht="14.25">
       <c r="B77" s="21" t="s">
         <v>19</v>
       </c>
@@ -3746,7 +3608,7 @@
         <v>0.39455899999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="14.25">
+    <row r="78" spans="2:18" ht="13.5">
       <c r="B78" s="24" t="s">
         <v>21</v>
       </c>
@@ -3801,7 +3663,7 @@
   <dimension ref="B4:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3809,10 +3671,10 @@
     <col min="1" max="1" style="1"/>
     <col min="2" max="2" style="1" width="26.56983" customWidth="1"/>
     <col min="3" max="11" style="1" width="10.2851" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" style="1" width="9.142308"/>
+    <col min="12" max="12" style="1"/>
+    <col min="13" max="13" style="1" width="9.142308"/>
     <col min="14" max="14" style="1" width="16.57043" customWidth="1"/>
-    <col min="15" max="251" style="1"/>
-    <col min="252" max="256" style="0"/>
+    <col min="15" max="256" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="14.25">
@@ -3825,29 +3687,29 @@
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="2:14" ht="14.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="M5" s="34" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="M5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="14.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C6">
@@ -3869,12 +3731,12 @@
         <v>24</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J6">
         <v>48</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="22">
         <v>56</v>
       </c>
       <c r="M6" s="8" t="s">
@@ -3885,7 +3747,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="14.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="9">
@@ -3912,7 +3774,7 @@
       <c r="J7" s="9">
         <v>0.13975399999999999</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="23">
         <v>0.098641999999999994</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -3923,42 +3785,42 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.25">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="25">
         <f>$N$6/C7</f>
         <v>0.16986062717770034</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="25">
         <f>$N$6/D7</f>
         <v>0.263284791204552</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="25">
         <f>$N$6/E7</f>
         <v>0.48585157501334753</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="25">
         <f>$N$6/F7</f>
         <v>0.7152213780455855</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="25">
         <f>$N$6/G7</f>
         <v>0.045552385243029479</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="25">
         <f>$N$6/H7</f>
         <v>1.0259301014656144</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="25">
         <f>$N$6/I7</f>
         <v>0.86447118429385672</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="25">
         <f>$N$6/J7</f>
         <v>0.019534324598938134</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="25">
         <f>$N$6/K7</f>
         <v>0.027675837878388516</v>
       </c>
@@ -3970,29 +3832,29 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="14.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
       <c r="M9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="N9" s="9">
-        <v>0.021321</v>
+        <v>0.021641000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="14.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C10">
@@ -4014,12 +3876,12 @@
         <v>24</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J10">
         <v>48</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="22">
         <v>56</v>
       </c>
       <c r="M10" s="8" t="s">
@@ -4030,7 +3892,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="14.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="9">
@@ -4057,7 +3919,7 @@
       <c r="J11" s="9">
         <v>0.079827999999999996</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="23">
         <v>0.078700000000000006</v>
       </c>
       <c r="M11" s="8" t="s">
@@ -4068,42 +3930,42 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.25">
-      <c r="B12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="40">
+      <c r="B12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="25">
         <f>$N$7/C11</f>
         <v>0.1963080587534736</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="25">
         <f>$N$7/D11</f>
         <v>0.29966064719427948</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="25">
         <f>$N$7/E11</f>
         <v>0.55712032447048221</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="25">
         <f>$N$7/F11</f>
         <v>0.83039462636439954</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="25">
         <f>$N$7/G11</f>
         <v>0.069880165055678026</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="25">
         <f>$N$7/H11</f>
         <v>0.083981522366767439</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="25">
         <f>$N$7/I11</f>
         <v>1.0815835520559931</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="25">
         <f>$N$7/J11</f>
         <v>0.061945683218920682</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="25">
         <f>$N$7/K11</f>
         <v>0.062833545108005068</v>
       </c>
@@ -4115,20 +3977,20 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="14.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
       <c r="M13" s="8" t="s">
         <v>13</v>
       </c>
@@ -4137,7 +3999,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="14.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C14">
@@ -4159,23 +4021,23 @@
         <v>24</v>
       </c>
       <c r="I14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J14">
         <v>48</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="22">
         <v>56</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N14" s="9">
-        <v>0.67332899999999996</v>
+        <v>0.67364900000000005</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="14.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="9">
@@ -4202,71 +4064,69 @@
       <c r="J15" s="9">
         <v>0.099889000000000006</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="23">
         <v>0.063947000000000004</v>
       </c>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
     </row>
     <row r="16" spans="2:14" ht="14.25">
-      <c r="B16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="40">
+      <c r="B16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="25">
         <f>$N$8/C15</f>
         <v>0.23437082554100991</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="25">
         <f>$N$8/D15</f>
         <v>0.38416903875629516</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="25">
         <f>$N$8/E15</f>
         <v>0.60257584430452205</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="25">
         <f>$N$8/F15</f>
         <v>1.1504918032786884</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="25">
         <f>$N$8/G15</f>
         <v>0.087877320689194613</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="25">
         <f>$N$8/H15</f>
         <v>1.7153332247026234</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="25">
         <f>$N$8/I15</f>
         <v>1.6333591931730023</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="25">
         <f>$N$8/J15</f>
         <v>0.10538697954729749</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="25">
         <f>$N$8/K15</f>
         <v>0.16462070151844496</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="14.25">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:14" ht="14.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C18">
@@ -4288,17 +4148,17 @@
         <v>24</v>
       </c>
       <c r="I18">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J18">
         <v>48</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="14.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="9">
@@ -4325,69 +4185,69 @@
       <c r="J19" s="9">
         <v>0.013346999999999999</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="23">
         <v>0.089913000000000007</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14.25">
-      <c r="B20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="40">
+      <c r="B20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="25">
         <f>$N$9/C19</f>
-        <v>0.24655680832610583</v>
-      </c>
-      <c r="D20" s="40">
+        <v>0.2502572997976294</v>
+      </c>
+      <c r="D20" s="25">
         <f>$N$9/D19</f>
-        <v>0.46725838264299807</v>
-      </c>
-      <c r="E20" s="40">
+        <v>0.47427131273285122</v>
+      </c>
+      <c r="E20" s="25">
         <f>$N$9/E19</f>
-        <v>0.73810842622723816</v>
-      </c>
-      <c r="F20" s="40">
+        <v>0.74918645710724929</v>
+      </c>
+      <c r="F20" s="25">
         <f>$N$9/F19</f>
-        <v>1.016835177413201</v>
-      </c>
-      <c r="G20" s="40">
+        <v>1.0320965280427319</v>
+      </c>
+      <c r="G20" s="25">
         <f>$N$9/G19</f>
-        <v>0.30764901952296436</v>
-      </c>
-      <c r="H20" s="40">
+        <v>0.31226642425291834</v>
+      </c>
+      <c r="H20" s="25">
         <f>$N$9/H19</f>
-        <v>1.9104838709677419</v>
-      </c>
-      <c r="I20" s="40">
+        <v>1.9391577060931902</v>
+      </c>
+      <c r="I20" s="25">
         <f>$N$9/I19</f>
-        <v>0.12660475279978148</v>
-      </c>
-      <c r="J20" s="40">
+        <v>0.12850492262745983</v>
+      </c>
+      <c r="J20" s="25">
         <f>$N$9/J19</f>
-        <v>1.5974376264329062</v>
-      </c>
-      <c r="K20" s="40">
+        <v>1.6214130516220875</v>
+      </c>
+      <c r="K20" s="25">
         <f>$N$9/K19</f>
-        <v>0.23712922491742014</v>
+        <v>0.24068822083569671</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="14.25">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="2:14" ht="14.25">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C22">
@@ -4409,17 +4269,17 @@
         <v>24</v>
       </c>
       <c r="I22">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J22">
         <v>48</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="14.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="9">
@@ -4446,69 +4306,69 @@
       <c r="J23" s="9">
         <v>0.139819</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="23">
         <v>0.14979400000000001</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="14.25">
-      <c r="B24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="40">
+      <c r="B24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="25">
         <f>$N$10/C23</f>
         <v>0.25420588764314406</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="25">
         <f>$N$10/D23</f>
         <v>0.47211767587911724</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="25">
         <f>$N$10/E23</f>
         <v>0.89311819349946286</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="25">
         <f>$N$10/F23</f>
         <v>1.4063619477245588</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="25">
         <f>$N$10/G23</f>
         <v>0.68908969754099691</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="25">
         <f>$N$10/H23</f>
         <v>1.8705166100498523</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="25">
         <f>$N$10/I23</f>
         <v>0.73041276185226012</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="25">
         <f>$N$10/J23</f>
         <v>0.30324204864860999</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="25">
         <f>$N$10/K23</f>
         <v>0.2830487202424663</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="14.25">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" spans="2:14" ht="14.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C26">
@@ -4530,17 +4390,17 @@
         <v>24</v>
       </c>
       <c r="I26">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J26">
         <v>48</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="14.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="9">
@@ -4567,69 +4427,69 @@
       <c r="J27" s="9">
         <v>0.055745000000000003</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="23">
         <v>0.122487</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="14.25">
-      <c r="B28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="40">
+      <c r="B28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="25">
         <f>$N$11/C27</f>
         <v>0.25247923288390095</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="25">
         <f>$N$11/D27</f>
         <v>0.51891116776154533</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="25">
         <f>$N$11/E27</f>
         <v>0.96025311000986591</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="25">
         <f>$N$11/F27</f>
         <v>1.596071926716176</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="25">
         <f>$N$11/G27</f>
         <v>0.66762329010131272</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H28" s="25">
         <f>$N$11/H27</f>
         <v>1.8301238410166636</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="25">
         <f>$N$11/I27</f>
         <v>0.52602218936749123</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="25">
         <f>$N$11/J27</f>
         <v>1.5190241277244596</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="25">
         <f>$N$11/K27</f>
         <v>0.69132234441206009</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="14.25">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="33"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" spans="2:14" ht="14.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C30">
@@ -4651,24 +4511,24 @@
         <v>24</v>
       </c>
       <c r="I30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J30">
         <v>48</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="14.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="9">
         <v>0.65561899999999995</v>
       </c>
       <c r="D31" s="9">
-        <v>0.32539099999999999</v>
+        <v>0.64539100000000005</v>
       </c>
       <c r="E31" s="9">
         <v>0.17752299999999999</v>
@@ -4688,69 +4548,69 @@
       <c r="J31" s="9">
         <v>0.16039100000000001</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="23">
         <v>0.16930899999999999</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="14.25">
-      <c r="B32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="40">
+      <c r="B32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="25">
         <f>$N$12/C31</f>
         <v>0.25765574213071923</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="25">
         <f>$N$12/D31</f>
-        <v>0.51914158658352572</v>
-      </c>
-      <c r="E32" s="40">
+        <v>0.26173900782626341</v>
+      </c>
+      <c r="E32" s="25">
         <f>$N$12/E31</f>
         <v>0.95156120615356887</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="25">
         <f>$N$12/F31</f>
         <v>1.6530384577747332</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="25">
         <f>$N$12/G31</f>
         <v>1.0838327195267488</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="25">
         <f>$N$12/H31</f>
         <v>1.2531268082075933</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="25">
         <f>$N$12/I31</f>
         <v>0.81565999198458716</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="25">
         <f>$N$12/J31</f>
         <v>1.0532012394710426</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="25">
         <f>$N$12/K31</f>
         <v>0.99772605118452062</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="C33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="2:14" ht="14.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C34">
@@ -4772,17 +4632,17 @@
         <v>24</v>
       </c>
       <c r="I34">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J34">
         <v>48</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="14.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="9">
@@ -4798,7 +4658,7 @@
         <v>0.20311499999999999</v>
       </c>
       <c r="G35" s="9">
-        <v>0.16323399999999999</v>
+        <v>0.166434</v>
       </c>
       <c r="H35" s="9">
         <v>0.17150000000000001</v>
@@ -4807,71 +4667,71 @@
         <v>0.20277200000000001</v>
       </c>
       <c r="J35" s="9">
-        <v>0.32772000000000001</v>
-      </c>
-      <c r="K35" s="38">
+        <v>0.64771999999999996</v>
+      </c>
+      <c r="K35" s="23">
         <v>0.24318899999999999</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="14.25">
-      <c r="B36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="40">
+      <c r="B36" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="25">
         <f>$N$13/C35</f>
         <v>0.26455708323064825</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="25">
         <f>$N$13/D35</f>
         <v>0.4934071467466084</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="25">
         <f>$N$13/E35</f>
         <v>0.95230265481225318</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="25">
         <f>$N$13/F35</f>
         <v>1.659542623636856</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="25">
         <f>$N$13/G35</f>
-        <v>2.0649987135033143</v>
-      </c>
-      <c r="H36" s="40">
+        <v>2.0252953122559094</v>
+      </c>
+      <c r="H36" s="25">
         <f>$N$13/H35</f>
         <v>1.9654693877551017</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="25">
         <f>$N$13/I35</f>
         <v>1.6623498313376599</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="25">
         <f>$N$13/J35</f>
-        <v>1.0285548639082143</v>
-      </c>
-      <c r="K36" s="40">
+        <v>0.52040696597295133</v>
+      </c>
+      <c r="K36" s="25">
         <f>$N$13/K35</f>
         <v>1.386074205658973</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="14.25">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="33"/>
+      <c r="C37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" spans="2:14" ht="14.25">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C38">
@@ -4893,17 +4753,17 @@
         <v>24</v>
       </c>
       <c r="I38">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J38">
         <v>48</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="14.25">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="9">
@@ -4930,49 +4790,49 @@
       <c r="J39" s="9">
         <v>0.41944300000000001</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="23">
         <v>0.39455899999999999</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="14.25">
-      <c r="B40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="40">
+      <c r="B40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="25">
         <f>$N$14/C39</f>
-        <v>0.26444196233955664</v>
-      </c>
-      <c r="D40" s="40">
+        <v>0.26456763853640647</v>
+      </c>
+      <c r="D40" s="25">
         <f>$N$14/D39</f>
-        <v>0.51073614745704854</v>
-      </c>
-      <c r="E40" s="40">
+        <v>0.51097887510903783</v>
+      </c>
+      <c r="E40" s="25">
         <f>$N$14/E39</f>
-        <v>0.98441351481746808</v>
-      </c>
-      <c r="F40" s="40">
+        <v>0.98488135791458953</v>
+      </c>
+      <c r="F40" s="25">
         <f>$N$14/F39</f>
-        <v>1.0363579274965484</v>
-      </c>
-      <c r="G40" s="40">
+        <v>1.0368504572060944</v>
+      </c>
+      <c r="G40" s="25">
         <f>$N$14/G39</f>
-        <v>1.9855301104630247</v>
-      </c>
-      <c r="H40" s="40">
+        <v>1.9864737348061741</v>
+      </c>
+      <c r="H40" s="25">
         <f>$N$14/H39</f>
-        <v>1.8202311888709266</v>
-      </c>
-      <c r="I40" s="40">
+        <v>1.821096254805171</v>
+      </c>
+      <c r="I40" s="25">
         <f>$N$14/I39</f>
-        <v>1.7909496172485515</v>
-      </c>
-      <c r="J40" s="40">
+        <v>1.7918007670988025</v>
+      </c>
+      <c r="J40" s="25">
         <f>$N$14/J39</f>
-        <v>1.6052932102812538</v>
-      </c>
-      <c r="K40" s="40">
+        <v>1.6060561268158011</v>
+      </c>
+      <c r="K40" s="25">
         <f>$N$14/K39</f>
-        <v>1.7065356511953851</v>
+        <v>1.7073466832590312</v>
       </c>
     </row>
   </sheetData>
